--- a/biology/Botanique/Parinari_excelsa/Parinari_excelsa.xlsx
+++ b/biology/Botanique/Parinari_excelsa/Parinari_excelsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parinari excelsa est une espèce de plantes de la famille des Chrysobalanaceae.
 On l'appelle également le prunier de Guinée ou Mame Patan en Wolof, Bousoguaye ou Niniya en diola.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prunier de Guinée est un arbre à croissance rapide présent dans les forêts humides d'Afrique de l'Ouest. Il peut mesurer jusqu'à 45 m de hauteur et 4 m de diamètre.
 Ses racines sont sinueuses et peu profondes.
@@ -548,7 +562,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est utilisé en menuiserie pour faire des meubles, pour les charpentes et les voies de chemin de fer.
 C'est aussi un bon bois de chauffe.
